--- a/biology/Médecine/Flatulences_de_haute_altitude/Flatulences_de_haute_altitude.xlsx
+++ b/biology/Médecine/Flatulences_de_haute_altitude/Flatulences_de_haute_altitude.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'expulsion de flatulences à haute altitude (EFHA en anglais High-altitude flatus expulsion ou HAFE) est un syndrome gastro-intestinal qui implique le passage spontané de quantités accrues de gaz rectaux à haute altitude[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'expulsion de flatulences à haute altitude (EFHA en anglais High-altitude flatus expulsion ou HAFE) est un syndrome gastro-intestinal qui implique le passage spontané de quantités accrues de gaz rectaux à haute altitude.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Syndrome</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrit pour la première fois par Joseph Hamel en c. 1820 [2] et parfois décrit par la suite[3]. Une étude historique sur ce phénomène a été publiée en 1981 par Paul Auerbach et York Miller[1].
-La sensation d'être plein ou de besoin d'expulser provoquée par ce différentiel de pression atmosphérique a été vérifiée par des études impliquant des pilotes militaires soumis à des changements de pression simulant un vol. [4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit pour la première fois par Joseph Hamel en c. 1820  et parfois décrit par la suite. Une étude historique sur ce phénomène a été publiée en 1981 par Paul Auerbach et York Miller.
+La sensation d'être plein ou de besoin d'expulser provoquée par ce différentiel de pression atmosphérique a été vérifiée par des études impliquant des pilotes militaires soumis à des changements de pression simulant un vol. 
 </t>
         </is>
       </c>
